--- a/AssetLightningE2E.xlsx
+++ b/AssetLightningE2E.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aneesha\Documents\GitHub\PavithraProjectLightning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EAC3239-9C71-49E3-848F-89270C3B77AB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D43B3448-1054-4DF4-9D0B-C26A422E0D17}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -633,7 +633,7 @@
   <dimension ref="A1:J28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="H33" sqref="H33"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
